--- a/zzyTest/Order.xlsx
+++ b/zzyTest/Order.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smart Duck\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\isem2006\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92F313B-132D-4F65-8B4C-5599210DDB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE68C4C-7D57-4405-8E2B-81DAC9D928F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>LastOrderNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ModulusChar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Items</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,12 +47,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VIPDiscount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP95discount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>A123456B5678784(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A123456B5678784(8)</t>
+  </si>
+  <si>
+    <t>A123456B5678784(9)</t>
+  </si>
+  <si>
+    <t>A123456B5678784(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A123456B5678784(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A123456B5678784(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A123456B5678784(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A123456B5678784(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food1 2, food2 1, food3 8</t>
+  </si>
+  <si>
+    <t>food2 2, food2 1, food3 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food1 2, food3 1, food4 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food1 2, food3 1, food3 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food10 3, food2 1, food3 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food11 28, food2 1, food3 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food7 2, food6 1, food3 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1126 2, food2 1, food3 4, food4 2, food5 3, food6 4, food7 20, food8 22, food9 11, food10 9, food11 9, food12 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E Wallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Transit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment collection</t>
   </si>
 </sst>
 </file>
@@ -99,8 +190,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -381,22 +473,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="24.4140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.4140625" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -416,17 +507,226 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2">
+        <v>234565</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44602</v>
+      </c>
+      <c r="E2">
+        <v>987654</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B3">
+        <v>234566</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44603</v>
+      </c>
+      <c r="E3">
+        <v>111001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4">
+        <v>234567</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44604</v>
+      </c>
+      <c r="E4">
+        <v>111002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>234568</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44605</v>
+      </c>
+      <c r="E5">
+        <v>111003</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>234569</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44606</v>
+      </c>
+      <c r="E6">
+        <v>111004</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>234570</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44607</v>
+      </c>
+      <c r="E7">
+        <v>111005</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>234571</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44608</v>
+      </c>
+      <c r="E8">
+        <v>111006</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>234572</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44609</v>
+      </c>
+      <c r="E9">
+        <v>111007</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/zzyTest/Order.xlsx
+++ b/zzyTest/Order.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\isem2006\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE68C4C-7D57-4405-8E2B-81DAC9D928F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11335A2A-E408-4D0D-AEED-F4AB8B64ECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -521,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>234565</v>
+        <v>234522</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>

--- a/zzyTest/Order.xlsx
+++ b/zzyTest/Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\isem2006\ISEM_Grop_proj\zzyTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE68C4C-7D57-4405-8E2B-81DAC9D928F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0391E1-F347-4813-8C88-B03E96F26D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,21 +476,21 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.4140625" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="24.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="104.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -542,7 +542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -568,7 +568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -620,7 +620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -646,7 +646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -672,7 +672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -698,7 +698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>

--- a/zzyTest/Order.xlsx
+++ b/zzyTest/Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0391E1-F347-4813-8C88-B03E96F26D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D2277-917C-491C-B51F-E5A426ADEA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>LastOrderNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,63 +51,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A123456B5678784(8)</t>
-  </si>
-  <si>
-    <t>A123456B5678784(9)</t>
-  </si>
-  <si>
-    <t>A123456B5678784(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A123456B5678784(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A123456B5678784(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A123456B5678784(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A123456B5678784(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food1 2, food2 1, food3 8</t>
-  </si>
-  <si>
-    <t>food2 2, food2 1, food3 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food1 2, food3 1, food4 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>food1 2, food3 1, food3 7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>food10 3, food2 1, food3 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food11 28, food2 1, food3 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food7 2, food6 1, food3 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1126 2, food2 1, food3 4, food4 2, food5 3, food6 4, food7 20, food8 22, food9 11, food10 9, food11 9, food12 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PaymentMethod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +95,74 @@
   </si>
   <si>
     <t>Payment collection</t>
+  </si>
+  <si>
+    <t>C235786A1204756(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B250035C1578965(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XR785214A2533687(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K128746B2547896(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN325221B7895125(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN985234C5324800(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U129658A9357825(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools3 1, necessities5 3, food2 2, food2 1, food3 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>necessities1 4, item1 10, necessities5 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1133 5, 1139 1, food2 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food11 28, necessities2 2, food2 1, food3 10, item4 5, item3 7, tool1 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food10 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2 10, item3 1, food1 10, food2 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN123254C8548952(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1123 1, 1131 2, tools5 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Received</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1126 2, food2 1, food3 4, food4 2, food5 3, tools1 10, tools2 2, necessities1 3, item4 1, necessities2 4, item5 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -473,11 +488,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -507,13 +520,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -521,10 +534,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>234565</v>
+        <v>222001</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>44602</v>
@@ -533,195 +546,221 @@
         <v>987654</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>234566</v>
+        <v>222005</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
-        <v>44603</v>
+        <v>44693</v>
       </c>
       <c r="E3">
-        <v>111001</v>
+        <v>314778</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>234567</v>
+        <v>222004</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
-        <v>44604</v>
+        <v>44476</v>
       </c>
       <c r="E4">
-        <v>111002</v>
+        <v>412789</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>234568</v>
+        <v>222006</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>44605</v>
+        <v>44931</v>
       </c>
       <c r="E5">
-        <v>111003</v>
+        <v>203578</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>222303</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43938</v>
+      </c>
+      <c r="E6">
+        <v>155985</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>234569</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1">
-        <v>44606</v>
-      </c>
-      <c r="E6">
-        <v>111004</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>222104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44972</v>
+      </c>
+      <c r="E7">
+        <v>984203</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>234570</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
-        <v>44607</v>
-      </c>
-      <c r="E7">
-        <v>111005</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>222103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44324</v>
+      </c>
+      <c r="E8">
+        <v>741265</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
-      </c>
-      <c r="B8">
-        <v>234571</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E8">
-        <v>111006</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>234572</v>
+        <v>222002</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>44609</v>
       </c>
       <c r="E9">
-        <v>111007</v>
+        <v>354154</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>222001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E10">
+        <v>298732</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/zzyTest/Order.xlsx
+++ b/zzyTest/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D2277-917C-491C-B51F-E5A426ADEA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D414AE46-F795-4ACB-8F01-C722F4E73EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="3276" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,14 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>food11 28, necessities2 2, food2 1, food3 10, item4 5, item3 7, tool1 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food10 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item2 10, item3 1, food1 10, food2 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +154,14 @@
   </si>
   <si>
     <t>1126 2, food2 1, food3 4, food4 2, food5 3, tools1 10, tools2 2, necessities1 3, item4 1, necessities2 4, item5 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food1 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food5 28, necessities2 2, food2 1, food3 10, item4 5, item3 7, tool1 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -537,7 +539,7 @@
         <v>222001</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
         <v>44602</v>
@@ -667,7 +669,7 @@
         <v>222104</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>44972</v>
@@ -693,7 +695,7 @@
         <v>222103</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1">
         <v>44324</v>
@@ -719,7 +721,7 @@
         <v>222002</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>44609</v>
@@ -739,13 +741,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>222001</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>44988</v>
@@ -757,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>

--- a/zzyTest/Order.xlsx
+++ b/zzyTest/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D414AE46-F795-4ACB-8F01-C722F4E73EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3166E40-413C-421A-BC6E-BE5D1FF78C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="3276" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>food5 28, necessities2 2, food2 1, food3 10, item4 5, item3 7, tool1 1</t>
+    <t>food5 28, necessities2 2, food2 1, food3 10, item4 5, item3 7, tools1 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/zzyTest/Order.xlsx
+++ b/zzyTest/Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3166E40-413C-421A-BC6E-BE5D1FF78C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FF67AA-92DE-4144-9465-F9343E33A81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/zzyTest/Order.xlsx
+++ b/zzyTest/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FF67AA-92DE-4144-9465-F9343E33A81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B885CF0-1C10-42A0-BA29-424D878115E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>LastOrderNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,18 +138,6 @@
   </si>
   <si>
     <t>item2 10, item3 1, food1 10, food2 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MN123254C8548952(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1123 1, 1131 2, tools5 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Received</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,9 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -539,7 +525,7 @@
         <v>222001</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1">
         <v>44602</v>
@@ -669,7 +655,7 @@
         <v>222104</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>44972</v>
@@ -695,7 +681,7 @@
         <v>222103</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>44324</v>
@@ -740,30 +726,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>222001</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44988</v>
-      </c>
-      <c r="E10">
-        <v>298732</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/zzyTest/Order.xlsx
+++ b/zzyTest/Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B885CF0-1C10-42A0-BA29-424D878115E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAED208-5AF2-483D-AF2B-966BE6274454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
